--- a/trade-target-tracker/cleaned_data/employment_pop_ratio_native_men.xlsx
+++ b/trade-target-tracker/cleaned_data/employment_pop_ratio_native_men.xlsx
@@ -1468,7 +1468,7 @@
         <v>2</v>
       </c>
       <c r="C126" s="1">
-        <v>0.6259007453918457</v>
+        <v>0.62712585926055908</v>
       </c>
     </row>
   </sheetData>
